--- a/doc/201608040118_庞棣.xlsx
+++ b/doc/201608040118_庞棣.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A219D-03AB-4A27-9F7E-A798C7C1F3DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534B295-2439-474C-87DA-3B650FC43709}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>原计划</t>
   </si>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>继续写需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-4:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,6 +444,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
